--- a/第二组评审-图书管理系统项目评审意见处理.xlsx
+++ b/第二组评审-图书管理系统项目评审意见处理.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15480" windowHeight="8535"/>
+    <workbookView windowWidth="20385" windowHeight="8535"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116">
   <si>
     <t>图书管理系统项目评审表</t>
   </si>
@@ -139,18 +139,27 @@
     <t>分馆信息指什么？都包含哪些内容？</t>
   </si>
   <si>
+    <t>分馆信息指可以查看分馆（或者兄弟馆）的基本信息：该馆藏书数量，藏书类别，哪些是该馆借阅本地馆的图书，本地馆借阅该馆的图书。</t>
+  </si>
+  <si>
     <t>2.2 主要特性2）第四条</t>
   </si>
   <si>
     <t>馆际借阅图书指？为什么放在图书管理员的需求中？</t>
   </si>
   <si>
+    <t>馆际借阅是指：当发现本地馆没有需求的图书时，可以请求分馆的图书，分馆的图书可以在线下运抵本地馆，因此这是图书管理员的用例，用户只能看到哪些书是本地馆没有的分馆有的，如果需要借阅只能找到借阅号，然后线下借阅。</t>
+  </si>
+  <si>
     <t>2.2 主要特性3）第二条</t>
   </si>
   <si>
     <t>不应对不同站点设置不同权限，图书管理员也可能使用图书馆中普通站点的系统进行查询等工作；考虑这样一个场景，普通读者在书架上未找到某图书，求助于正在上架图书的管理员，管理员使用最近的站点查询该图书，此时发现无法查看该书的具体情况（何时应归还等），必须返回自己的工作站查询，再告知该读者。建议通过登录用户的身份来控制权限即可，不然会限制图书管理员的工作地点，影响工作效率</t>
   </si>
   <si>
+    <t>这种情况是不存的，因为读者可以在公共的机器上查看到想要的图书所有信息（除了借阅人），包括什么时候归还等信息，因此这种情况下用户可以直接查看，无需图书管理员。图书管理员只是操作图书管理相关工作，包括外借图书，归还图书，入库图书，修改相关状态等，具体详见use case描述。</t>
+  </si>
+  <si>
     <t>2.2 主要特性3）第四条</t>
   </si>
   <si>
@@ -187,6 +196,17 @@
     <t>此部分内容中并未包含关于项目优先级的描述，建议重新梳理</t>
   </si>
   <si>
+    <t>4.2这个项目优先级并不是指的项目执行的优先级，而是从高层着眼，
+从一个驱动，一个约束，一个自由度进行分析，因此不需重新梳理，
+实施范围在第3部分已做了描述。</t>
+  </si>
+  <si>
+    <t>拒绝更改</t>
+  </si>
+  <si>
+    <t>郭豪</t>
+  </si>
+  <si>
     <t>5 产品成功的因素</t>
   </si>
   <si>
@@ -226,6 +246,9 @@
     <t>没搞懂为什么是include的关系。</t>
   </si>
   <si>
+    <t>这部分的include关系是错误的关系，现在已经删除。</t>
+  </si>
+  <si>
     <t>用例“管际借阅图书”</t>
   </si>
   <si>
@@ -236,6 +259,10 @@
   </si>
   <si>
     <t>这个用例周围的一票"extend"箭头是什么意思？</t>
+  </si>
+  <si>
+    <t>表示其他的用例都是依赖这个用例的，
+也就是这个登陆是这些用例的前提。</t>
   </si>
   <si>
     <t>图书馆管理系统DFD</t>
@@ -289,6 +316,9 @@
     <t>张妍</t>
   </si>
   <si>
+    <t>该部分只做概述，详情见后文，但接受该建议，完善了部分内容。</t>
+  </si>
+  <si>
     <t>3.1.1功能需求</t>
   </si>
   <si>
@@ -347,27 +377,19 @@
   </si>
   <si>
     <t>缺图</t>
-  </si>
-  <si>
-    <t>4.2这个项目优先级并不是指的项目执行的优先级，而是从高层着眼，从一个驱动，一个约束，一个自由度进行分析，因此不需重新梳理，实施范围在第3部分已做了描述。</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>拒绝更改</t>
-  </si>
-  <si>
-    <t>郭豪</t>
-  </si>
-  <si>
-    <t>该部分只做概述，详情见后文，但接受该建议，完善了部分内容。</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="9">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -389,6 +411,13 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -397,40 +426,157 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -443,8 +589,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -561,83 +893,325 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -647,36 +1221,76 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -966,11 +1580,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:I44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -979,704 +1594,717 @@
     <col min="2" max="2" width="21.875" customWidth="1"/>
     <col min="3" max="3" width="53.125" customWidth="1"/>
     <col min="4" max="4" width="17.75" customWidth="1"/>
-    <col min="5" max="5" width="38.125" style="35" customWidth="1"/>
+    <col min="5" max="5" width="45.625" style="1" customWidth="1"/>
     <col min="6" max="7" width="18.125" customWidth="1"/>
     <col min="9" max="9" width="55" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="48" customHeight="1">
-      <c r="A1" s="15" t="s">
+    <row r="1" ht="48" customHeight="1" spans="1:7">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="17"/>
-    </row>
-    <row r="2" spans="1:9" ht="30" customHeight="1">
-      <c r="A2" s="1" t="s">
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="4"/>
+    </row>
+    <row r="2" ht="30" customHeight="1" spans="1:9">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="2" t="s">
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="3"/>
-    </row>
-    <row r="3" spans="1:9" ht="30" customHeight="1">
-      <c r="A3" s="1" t="s">
+      <c r="I2" s="13"/>
+    </row>
+    <row r="3" ht="30" customHeight="1" spans="1:9">
+      <c r="A3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="14" t="s">
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="34" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="30" customHeight="1">
-      <c r="A4" s="4" t="s">
+    <row r="4" ht="30" customHeight="1" spans="1:9">
+      <c r="A4" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="32" t="s">
+      <c r="E4" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="3"/>
-      <c r="I4" s="14" t="s">
+      <c r="H4" s="13"/>
+      <c r="I4" s="34" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="30" customHeight="1">
-      <c r="A5" s="24" t="s">
+    <row r="5" ht="30" customHeight="1" spans="1:7">
+      <c r="A5" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="33"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-    </row>
-    <row r="6" spans="1:9" ht="57" customHeight="1">
-      <c r="A6" s="25"/>
-      <c r="B6" s="1" t="s">
+      <c r="E5" s="21"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+    </row>
+    <row r="6" ht="57" customHeight="1" spans="1:7">
+      <c r="A6" s="22"/>
+      <c r="B6" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="33"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-    </row>
-    <row r="7" spans="1:9" ht="57" customHeight="1">
-      <c r="A7" s="25"/>
-      <c r="B7" s="1" t="s">
+      <c r="E6" s="21"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+    </row>
+    <row r="7" ht="57" customHeight="1" spans="1:7">
+      <c r="A7" s="22"/>
+      <c r="B7" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="33"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-    </row>
-    <row r="8" spans="1:9" ht="90" customHeight="1">
-      <c r="A8" s="25"/>
-      <c r="B8" s="1" t="s">
+      <c r="E7" s="21"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+    </row>
+    <row r="8" ht="90" customHeight="1" spans="1:7">
+      <c r="A8" s="22"/>
+      <c r="B8" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="33"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-    </row>
-    <row r="9" spans="1:9" ht="80.25" customHeight="1">
-      <c r="A9" s="25"/>
-      <c r="B9" s="1" t="s">
+      <c r="E8" s="21"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+    </row>
+    <row r="9" ht="80.25" customHeight="1" spans="1:7">
+      <c r="A9" s="22"/>
+      <c r="B9" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="33"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-    </row>
-    <row r="10" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A10" s="25"/>
-      <c r="B10" s="1" t="s">
+      <c r="E9" s="21"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+    </row>
+    <row r="10" ht="33.75" customHeight="1" spans="1:7">
+      <c r="A10" s="22"/>
+      <c r="B10" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="33"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-    </row>
-    <row r="11" spans="1:9" ht="45" customHeight="1">
-      <c r="A11" s="25"/>
-      <c r="B11" s="1" t="s">
+      <c r="E10" s="21"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+    </row>
+    <row r="11" ht="45" customHeight="1" spans="1:7">
+      <c r="A11" s="22"/>
+      <c r="B11" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="33"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-    </row>
-    <row r="12" spans="1:9" ht="95.1" customHeight="1">
-      <c r="A12" s="25"/>
-      <c r="B12" s="1" t="s">
+      <c r="E11" s="21"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+    </row>
+    <row r="12" ht="95.1" customHeight="1" spans="1:7">
+      <c r="A12" s="22"/>
+      <c r="B12" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E12" s="34" t="s">
+      <c r="E12" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="F12" s="8" t="s">
+      <c r="F12" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="G12" s="8" t="s">
+      <c r="G12" s="20" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="30" customHeight="1">
-      <c r="A13" s="25"/>
-      <c r="B13" s="1" t="s">
+    <row r="13" ht="92" customHeight="1" spans="1:7">
+      <c r="A13" s="22"/>
+      <c r="B13" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E13" s="33"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-    </row>
-    <row r="14" spans="1:9" ht="30" customHeight="1">
-      <c r="A14" s="25"/>
-      <c r="B14" s="1" t="s">
+      <c r="E13" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="F13" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="G13" s="20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" ht="91" customHeight="1" spans="1:7">
+      <c r="A14" s="22"/>
+      <c r="B14" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="C14" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E14" s="33"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-    </row>
-    <row r="15" spans="1:9" ht="113.25" customHeight="1">
-      <c r="A15" s="25"/>
-      <c r="B15" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C15" s="8" t="s">
+      <c r="E14" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+    </row>
+    <row r="15" ht="113.25" customHeight="1" spans="1:7">
+      <c r="A15" s="22"/>
+      <c r="B15" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E15" s="33"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-    </row>
-    <row r="16" spans="1:9" ht="39" customHeight="1">
-      <c r="A16" s="25"/>
-      <c r="B16" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="D16" s="9" t="s">
+      <c r="E15" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+    </row>
+    <row r="16" ht="39" customHeight="1" spans="1:7">
+      <c r="A16" s="22"/>
+      <c r="B16" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E16" s="33"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-    </row>
-    <row r="17" spans="1:7" ht="30" customHeight="1">
-      <c r="A17" s="25"/>
-      <c r="B17" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="D17" s="9" t="s">
+      <c r="E16" s="21"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+    </row>
+    <row r="17" ht="30" customHeight="1" spans="1:7">
+      <c r="A17" s="22"/>
+      <c r="B17" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E17" s="33"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-    </row>
-    <row r="18" spans="1:7" ht="37.5" customHeight="1">
-      <c r="A18" s="25"/>
-      <c r="B18" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="D18" s="9" t="s">
+      <c r="E17" s="21"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+    </row>
+    <row r="18" ht="37.5" customHeight="1" spans="1:7">
+      <c r="A18" s="22"/>
+      <c r="B18" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E18" s="33"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-    </row>
-    <row r="19" spans="1:7" ht="37.5" customHeight="1">
-      <c r="A19" s="25"/>
-      <c r="B19" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="D19" s="9" t="s">
+      <c r="E18" s="21"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+    </row>
+    <row r="19" ht="37.5" customHeight="1" spans="1:7">
+      <c r="A19" s="22"/>
+      <c r="B19" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="D19" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E19" s="33"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-    </row>
-    <row r="20" spans="1:7" ht="56.25" customHeight="1">
-      <c r="A20" s="25"/>
-      <c r="B20" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="D20" s="9" t="s">
+      <c r="E19" s="21"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
+    </row>
+    <row r="20" ht="56.25" customHeight="1" spans="1:7">
+      <c r="A20" s="22"/>
+      <c r="B20" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E20" s="33"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-    </row>
-    <row r="21" spans="1:7" ht="70.5" customHeight="1">
-      <c r="A21" s="25"/>
-      <c r="B21" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="D21" s="9" t="s">
+      <c r="E20" s="21"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20"/>
+    </row>
+    <row r="21" ht="108" customHeight="1" spans="1:7">
+      <c r="A21" s="22"/>
+      <c r="B21" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="D21" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E21" s="36" t="s">
+      <c r="E21" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="F21" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="G21" s="20" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" ht="65.45" customHeight="1" spans="1:7">
+      <c r="A22" s="22"/>
+      <c r="B22" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22" s="21"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="20"/>
+    </row>
+    <row r="23" ht="30" customHeight="1" spans="1:7">
+      <c r="A23" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D23" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="E23" s="21"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20"/>
+    </row>
+    <row r="24" ht="30" customHeight="1" spans="1:7">
+      <c r="A24" s="22"/>
+      <c r="B24" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D24" s="25"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="20"/>
+    </row>
+    <row r="25" ht="30" customHeight="1" spans="1:7">
+      <c r="A25" s="26"/>
+      <c r="B25" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D25" s="25"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="20"/>
+    </row>
+    <row r="26" ht="30" customHeight="1" spans="1:7">
+      <c r="A26" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D26" s="25"/>
+      <c r="E26" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F26" s="20"/>
+      <c r="G26" s="20"/>
+    </row>
+    <row r="27" ht="30" customHeight="1" spans="1:7">
+      <c r="A27" s="22"/>
+      <c r="B27" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D27" s="25"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="20"/>
+    </row>
+    <row r="28" ht="30" customHeight="1" spans="1:7">
+      <c r="A28" s="26"/>
+      <c r="B28" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D28" s="25"/>
+      <c r="E28" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="F28" s="20"/>
+      <c r="G28" s="20"/>
+    </row>
+    <row r="29" ht="30" customHeight="1" spans="1:7">
+      <c r="A29" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D29" s="25"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="20"/>
+    </row>
+    <row r="30" ht="30" customHeight="1" spans="1:7">
+      <c r="A30" s="22"/>
+      <c r="B30" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D30" s="25"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="20"/>
+    </row>
+    <row r="31" ht="30" customHeight="1" spans="1:7">
+      <c r="A31" s="22"/>
+      <c r="B31" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D31" s="25"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="20"/>
+    </row>
+    <row r="32" ht="30" customHeight="1" spans="1:7">
+      <c r="A32" s="22"/>
+      <c r="B32" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C32" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="D32" s="25"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="20"/>
+    </row>
+    <row r="33" ht="30" customHeight="1" spans="1:7">
+      <c r="A33" s="22"/>
+      <c r="B33" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D33" s="25"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="20"/>
+    </row>
+    <row r="34" ht="132" spans="1:7">
+      <c r="A34" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C34" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="E34" s="21"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="20"/>
+    </row>
+    <row r="35" ht="56.25" customHeight="1" spans="1:7">
+      <c r="A35" s="28"/>
+      <c r="B35" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C35" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="E35" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="F35" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="G35" s="20" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" ht="69" customHeight="1" spans="1:7">
+      <c r="A36" s="28"/>
+      <c r="B36" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C36" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="E36" s="21"/>
+      <c r="F36" s="20"/>
+      <c r="G36" s="20"/>
+    </row>
+    <row r="37" ht="84.75" customHeight="1" spans="1:7">
+      <c r="A37" s="28"/>
+      <c r="B37" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C37" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="E37" s="21"/>
+      <c r="F37" s="20"/>
+      <c r="G37" s="20"/>
+    </row>
+    <row r="38" ht="71.25" customHeight="1" spans="1:7">
+      <c r="A38" s="28"/>
+      <c r="B38" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C38" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="E38" s="21"/>
+      <c r="F38" s="20"/>
+      <c r="G38" s="20"/>
+    </row>
+    <row r="39" ht="71.25" customHeight="1" spans="1:7">
+      <c r="A39" s="28"/>
+      <c r="B39" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C39" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="E39" s="21"/>
+      <c r="F39" s="20"/>
+      <c r="G39" s="20"/>
+    </row>
+    <row r="40" ht="71.25" customHeight="1" spans="1:7">
+      <c r="A40" s="28"/>
+      <c r="B40" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C40" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="E40" s="21"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="20"/>
+    </row>
+    <row r="41" ht="98.25" customHeight="1" spans="1:7">
+      <c r="A41" s="28"/>
+      <c r="B41" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="F21" s="8" t="s">
+      <c r="C41" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="G21" s="8" t="s">
+      <c r="D41" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="E41" s="21"/>
+      <c r="F41" s="20"/>
+      <c r="G41" s="20"/>
+    </row>
+    <row r="42" ht="39.75" customHeight="1" spans="1:7">
+      <c r="A42" s="28"/>
+      <c r="B42" s="30" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" ht="65.45" customHeight="1">
-      <c r="A22" s="25"/>
-      <c r="B22" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E22" s="33"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-    </row>
-    <row r="23" spans="1:7" ht="30" customHeight="1">
-      <c r="A23" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D23" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="E23" s="33"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-    </row>
-    <row r="24" spans="1:7" ht="30" customHeight="1">
-      <c r="A24" s="25"/>
-      <c r="B24" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D24" s="31"/>
-      <c r="E24" s="33"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-    </row>
-    <row r="25" spans="1:7" ht="30" customHeight="1">
-      <c r="A25" s="26"/>
-      <c r="B25" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D25" s="31"/>
-      <c r="E25" s="33"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-    </row>
-    <row r="26" spans="1:7" ht="30" customHeight="1">
-      <c r="A26" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D26" s="31"/>
-      <c r="E26" s="33"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-    </row>
-    <row r="27" spans="1:7" ht="30" customHeight="1">
-      <c r="A27" s="25"/>
-      <c r="B27" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D27" s="31"/>
-      <c r="E27" s="33"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-    </row>
-    <row r="28" spans="1:7" ht="30" customHeight="1">
-      <c r="A28" s="26"/>
-      <c r="B28" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D28" s="31"/>
-      <c r="E28" s="33"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-    </row>
-    <row r="29" spans="1:7" ht="30" customHeight="1">
-      <c r="A29" s="24" t="s">
-        <v>72</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D29" s="31"/>
-      <c r="E29" s="33"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-    </row>
-    <row r="30" spans="1:7" ht="30" customHeight="1">
-      <c r="A30" s="25"/>
-      <c r="B30" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D30" s="31"/>
-      <c r="E30" s="33"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-    </row>
-    <row r="31" spans="1:7" ht="30" customHeight="1">
-      <c r="A31" s="25"/>
-      <c r="B31" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D31" s="31"/>
-      <c r="E31" s="33"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-    </row>
-    <row r="32" spans="1:7" ht="30" customHeight="1">
-      <c r="A32" s="25"/>
-      <c r="B32" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="D32" s="31"/>
-      <c r="E32" s="33"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
-    </row>
-    <row r="33" spans="1:7" ht="30" customHeight="1">
-      <c r="A33" s="25"/>
-      <c r="B33" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D33" s="31"/>
-      <c r="E33" s="33"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8"/>
-    </row>
-    <row r="34" spans="1:7" ht="132">
-      <c r="A34" s="27" t="s">
-        <v>80</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="D34" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="E34" s="33"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8"/>
-    </row>
-    <row r="35" spans="1:7" ht="56.25" customHeight="1">
-      <c r="A35" s="28"/>
-      <c r="B35" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="D35" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="E35" s="36" t="s">
+      <c r="C42" s="31" t="s">
         <v>110</v>
       </c>
-      <c r="F35" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="G35" s="8" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="69" customHeight="1">
-      <c r="A36" s="28"/>
-      <c r="B36" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="D36" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="E36" s="33"/>
-      <c r="F36" s="8"/>
-      <c r="G36" s="8"/>
-    </row>
-    <row r="37" spans="1:7" ht="84.75" customHeight="1">
-      <c r="A37" s="28"/>
-      <c r="B37" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="D37" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="E37" s="33"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="8"/>
-    </row>
-    <row r="38" spans="1:7" ht="71.25" customHeight="1">
-      <c r="A38" s="28"/>
-      <c r="B38" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="D38" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="E38" s="33"/>
-      <c r="F38" s="8"/>
-      <c r="G38" s="8"/>
-    </row>
-    <row r="39" spans="1:7" ht="71.25" customHeight="1">
-      <c r="A39" s="28"/>
-      <c r="B39" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="D39" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="E39" s="33"/>
-      <c r="F39" s="8"/>
-      <c r="G39" s="8"/>
-    </row>
-    <row r="40" spans="1:7" ht="71.25" customHeight="1">
-      <c r="A40" s="28"/>
-      <c r="B40" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C40" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="D40" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="E40" s="33"/>
-      <c r="F40" s="8"/>
-      <c r="G40" s="8"/>
-    </row>
-    <row r="41" spans="1:7" ht="98.25" customHeight="1">
-      <c r="A41" s="28"/>
-      <c r="B41" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C41" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="D41" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="E41" s="33"/>
-      <c r="F41" s="8"/>
-      <c r="G41" s="8"/>
-    </row>
-    <row r="42" spans="1:7" ht="39.75" customHeight="1">
-      <c r="A42" s="28"/>
-      <c r="B42" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="C42" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="D42" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="E42" s="33"/>
-      <c r="F42" s="8"/>
-      <c r="G42" s="8"/>
-    </row>
-    <row r="43" spans="1:7" ht="30" customHeight="1">
+      <c r="D42" s="32" t="s">
+        <v>111</v>
+      </c>
+      <c r="E42" s="21"/>
+      <c r="F42" s="20"/>
+      <c r="G42" s="20"/>
+    </row>
+    <row r="43" ht="30" customHeight="1" spans="1:7">
       <c r="A43" s="28"/>
-      <c r="B43" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="C43" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="D43" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="E43" s="33"/>
-      <c r="F43" s="8"/>
-      <c r="G43" s="8"/>
-    </row>
-    <row r="44" spans="1:7" ht="33.75" customHeight="1">
-      <c r="A44" s="29"/>
-      <c r="B44" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="C44" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="D44" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="E44" s="33"/>
-      <c r="F44" s="8"/>
-      <c r="G44" s="8"/>
+      <c r="B43" s="30" t="s">
+        <v>112</v>
+      </c>
+      <c r="C43" s="31" t="s">
+        <v>113</v>
+      </c>
+      <c r="D43" s="32" t="s">
+        <v>111</v>
+      </c>
+      <c r="E43" s="21"/>
+      <c r="F43" s="20"/>
+      <c r="G43" s="20"/>
+    </row>
+    <row r="44" ht="33.75" customHeight="1" spans="1:7">
+      <c r="A44" s="33"/>
+      <c r="B44" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="C44" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="D44" s="32" t="s">
+        <v>111</v>
+      </c>
+      <c r="E44" s="21"/>
+      <c r="F44" s="20"/>
+      <c r="G44" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="A26:A28"/>
-    <mergeCell ref="A29:A33"/>
-    <mergeCell ref="A34:A44"/>
-    <mergeCell ref="D23:D33"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="A5:A22"/>
     <mergeCell ref="A23:A25"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="A29:A33"/>
+    <mergeCell ref="A34:A44"/>
+    <mergeCell ref="D23:D33"/>
   </mergeCells>
-  <phoneticPr fontId="6" type="noConversion"/>
   <dataValidations count="3">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F44">
@@ -1686,33 +2314,40 @@
       <formula1>"高超,刘洪通,郭豪,康安博,徐元明,王克剑"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/第二组评审-图书管理系统项目评审意见处理.xlsx
+++ b/第二组评审-图书管理系统项目评审意见处理.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117">
   <si>
     <t>图书管理系统项目评审表</t>
   </si>
@@ -151,6 +151,9 @@
     <t>馆际借阅是指：当发现本地馆没有需求的图书时，可以请求分馆的图书，分馆的图书可以在线下运抵本地馆，因此这是图书管理员的用例，用户只能看到哪些书是本地馆没有的分馆有的，如果需要借阅只能找到借阅号，然后线下借阅。</t>
   </si>
   <si>
+    <t>拒绝更改</t>
+  </si>
+  <si>
     <t>2.2 主要特性3）第二条</t>
   </si>
   <si>
@@ -170,6 +173,10 @@
   </si>
   <si>
     <t>描述的依然是系统功能及主要用户，非假设与依赖</t>
+  </si>
+  <si>
+    <t>按照规范假设和依赖环境应该写这些内容：记录所作出的任何假设。通常一方所持的假设应与另一方不同。如果你把它们都记录下来，并加以评论，就能对项目内部隐含的基本假设达成共识。比如，“化学制品跟踪系统”的开发者假设：该系统可以替代现有的仓库存货系统，并能与有关采购部门的应用相连接。把这些都记录下来以防止将来可能的混淆和冲突。 
+还有，记录项目所依赖的主要环境，比如：所使用的特殊的技术、第三方供应商、开发伙伴或其它业务关系。而我们组的描述全部与之相符，因此无需修改。</t>
   </si>
   <si>
     <t>3 范围和局限性</t>
@@ -199,9 +206,6 @@
     <t>4.2这个项目优先级并不是指的项目执行的优先级，而是从高层着眼，
 从一个驱动，一个约束，一个自由度进行分析，因此不需重新梳理，
 实施范围在第3部分已做了描述。</t>
-  </si>
-  <si>
-    <t>拒绝更改</t>
   </si>
   <si>
     <t>郭豪</t>
@@ -385,11 +389,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -421,34 +425,12 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -456,51 +438,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -516,6 +461,28 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -524,16 +491,23 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -547,16 +521,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -569,8 +543,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -591,55 +581,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -651,127 +755,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -896,6 +886,48 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -905,11 +937,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -929,45 +967,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -982,164 +981,155 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1220,9 +1210,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1584,8 +1571,8 @@
   <sheetPr/>
   <dimension ref="A1:I44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1640,7 +1627,7 @@
       <c r="F3" s="11"/>
       <c r="G3" s="12"/>
       <c r="H3" s="13"/>
-      <c r="I3" s="34" t="s">
+      <c r="I3" s="33" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1667,7 +1654,7 @@
         <v>13</v>
       </c>
       <c r="H4" s="13"/>
-      <c r="I4" s="34" t="s">
+      <c r="I4" s="33" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1834,33 +1821,41 @@
       <c r="E14" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
+      <c r="F14" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="G14" s="20" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="15" ht="113.25" customHeight="1" spans="1:7">
       <c r="A15" s="22"/>
       <c r="B15" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>23</v>
       </c>
       <c r="E15" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
+        <v>46</v>
+      </c>
+      <c r="F15" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="G15" s="20" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="16" ht="39" customHeight="1" spans="1:7">
       <c r="A16" s="22"/>
       <c r="B16" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>23</v>
@@ -1869,28 +1864,34 @@
       <c r="F16" s="20"/>
       <c r="G16" s="20"/>
     </row>
-    <row r="17" ht="30" customHeight="1" spans="1:7">
+    <row r="17" ht="176" customHeight="1" spans="1:7">
       <c r="A17" s="22"/>
       <c r="B17" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E17" s="21"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
+      <c r="E17" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="F17" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="G17" s="20" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="18" ht="37.5" customHeight="1" spans="1:7">
       <c r="A18" s="22"/>
       <c r="B18" s="5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C18" s="20" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>23</v>
@@ -1902,10 +1903,10 @@
     <row r="19" ht="37.5" customHeight="1" spans="1:7">
       <c r="A19" s="22"/>
       <c r="B19" s="5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>23</v>
@@ -1917,10 +1918,10 @@
     <row r="20" ht="56.25" customHeight="1" spans="1:7">
       <c r="A20" s="22"/>
       <c r="B20" s="5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>23</v>
@@ -1932,31 +1933,31 @@
     <row r="21" ht="108" customHeight="1" spans="1:7">
       <c r="A21" s="22"/>
       <c r="B21" s="5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>18</v>
       </c>
       <c r="E21" s="20" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F21" s="20" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="G21" s="20" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" ht="65.45" customHeight="1" spans="1:7">
       <c r="A22" s="22"/>
       <c r="B22" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>18</v>
@@ -1967,16 +1968,16 @@
     </row>
     <row r="23" ht="30" customHeight="1" spans="1:7">
       <c r="A23" s="19" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D23" s="24" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E23" s="21"/>
       <c r="F23" s="20"/>
@@ -1985,10 +1986,10 @@
     <row r="24" ht="30" customHeight="1" spans="1:7">
       <c r="A24" s="22"/>
       <c r="B24" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D24" s="25"/>
       <c r="E24" s="21"/>
@@ -1998,10 +1999,10 @@
     <row r="25" ht="30" customHeight="1" spans="1:7">
       <c r="A25" s="26"/>
       <c r="B25" s="5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D25" s="25"/>
       <c r="E25" s="21"/>
@@ -2010,58 +2011,66 @@
     </row>
     <row r="26" ht="30" customHeight="1" spans="1:7">
       <c r="A26" s="19" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D26" s="25"/>
       <c r="E26" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="F26" s="20"/>
-      <c r="G26" s="20"/>
+        <v>75</v>
+      </c>
+      <c r="F26" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="G26" s="20" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="27" ht="30" customHeight="1" spans="1:7">
       <c r="A27" s="22"/>
       <c r="B27" s="5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D27" s="25"/>
       <c r="E27" s="21"/>
       <c r="F27" s="20"/>
       <c r="G27" s="20"/>
     </row>
-    <row r="28" ht="30" customHeight="1" spans="1:7">
+    <row r="28" ht="48" customHeight="1" spans="1:7">
       <c r="A28" s="26"/>
       <c r="B28" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D28" s="25"/>
       <c r="E28" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
+        <v>80</v>
+      </c>
+      <c r="F28" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="G28" s="20" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="29" ht="30" customHeight="1" spans="1:7">
       <c r="A29" s="19" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D29" s="25"/>
       <c r="E29" s="21"/>
@@ -2071,10 +2080,10 @@
     <row r="30" ht="30" customHeight="1" spans="1:7">
       <c r="A30" s="22"/>
       <c r="B30" s="5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D30" s="25"/>
       <c r="E30" s="21"/>
@@ -2084,10 +2093,10 @@
     <row r="31" ht="30" customHeight="1" spans="1:7">
       <c r="A31" s="22"/>
       <c r="B31" s="5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D31" s="25"/>
       <c r="E31" s="21"/>
@@ -2097,10 +2106,10 @@
     <row r="32" ht="30" customHeight="1" spans="1:7">
       <c r="A32" s="22"/>
       <c r="B32" s="5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C32" s="20" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D32" s="25"/>
       <c r="E32" s="21"/>
@@ -2110,10 +2119,10 @@
     <row r="33" ht="30" customHeight="1" spans="1:7">
       <c r="A33" s="22"/>
       <c r="B33" s="5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D33" s="25"/>
       <c r="E33" s="21"/>
@@ -2122,16 +2131,16 @@
     </row>
     <row r="34" ht="132" spans="1:7">
       <c r="A34" s="27" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C34" s="20" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E34" s="21"/>
       <c r="F34" s="20"/>
@@ -2140,34 +2149,34 @@
     <row r="35" ht="56.25" customHeight="1" spans="1:7">
       <c r="A35" s="28"/>
       <c r="B35" s="5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C35" s="20" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="E35" s="29" t="s">
         <v>95</v>
+      </c>
+      <c r="E35" s="20" t="s">
+        <v>96</v>
       </c>
       <c r="F35" s="20" t="s">
         <v>35</v>
       </c>
       <c r="G35" s="20" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="36" ht="69" customHeight="1" spans="1:7">
       <c r="A36" s="28"/>
       <c r="B36" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C36" s="20" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E36" s="21"/>
       <c r="F36" s="20"/>
@@ -2176,13 +2185,13 @@
     <row r="37" ht="84.75" customHeight="1" spans="1:7">
       <c r="A37" s="28"/>
       <c r="B37" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C37" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="D37" s="6" t="s">
         <v>99</v>
-      </c>
-      <c r="C37" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>98</v>
       </c>
       <c r="E37" s="21"/>
       <c r="F37" s="20"/>
@@ -2191,13 +2200,13 @@
     <row r="38" ht="71.25" customHeight="1" spans="1:7">
       <c r="A38" s="28"/>
       <c r="B38" s="5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C38" s="20" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E38" s="21"/>
       <c r="F38" s="20"/>
@@ -2206,13 +2215,13 @@
     <row r="39" ht="71.25" customHeight="1" spans="1:7">
       <c r="A39" s="28"/>
       <c r="B39" s="5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C39" s="20" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E39" s="21"/>
       <c r="F39" s="20"/>
@@ -2221,13 +2230,13 @@
     <row r="40" ht="71.25" customHeight="1" spans="1:7">
       <c r="A40" s="28"/>
       <c r="B40" s="5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C40" s="20" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E40" s="21"/>
       <c r="F40" s="20"/>
@@ -2236,13 +2245,13 @@
     <row r="41" ht="98.25" customHeight="1" spans="1:7">
       <c r="A41" s="28"/>
       <c r="B41" s="5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C41" s="20" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E41" s="21"/>
       <c r="F41" s="20"/>
@@ -2250,14 +2259,14 @@
     </row>
     <row r="42" ht="39.75" customHeight="1" spans="1:7">
       <c r="A42" s="28"/>
-      <c r="B42" s="30" t="s">
-        <v>109</v>
-      </c>
-      <c r="C42" s="31" t="s">
+      <c r="B42" s="29" t="s">
         <v>110</v>
       </c>
-      <c r="D42" s="32" t="s">
+      <c r="C42" s="30" t="s">
         <v>111</v>
+      </c>
+      <c r="D42" s="31" t="s">
+        <v>112</v>
       </c>
       <c r="E42" s="21"/>
       <c r="F42" s="20"/>
@@ -2265,29 +2274,29 @@
     </row>
     <row r="43" ht="30" customHeight="1" spans="1:7">
       <c r="A43" s="28"/>
-      <c r="B43" s="30" t="s">
+      <c r="B43" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="C43" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="D43" s="31" t="s">
         <v>112</v>
-      </c>
-      <c r="C43" s="31" t="s">
-        <v>113</v>
-      </c>
-      <c r="D43" s="32" t="s">
-        <v>111</v>
       </c>
       <c r="E43" s="21"/>
       <c r="F43" s="20"/>
       <c r="G43" s="20"/>
     </row>
     <row r="44" ht="33.75" customHeight="1" spans="1:7">
-      <c r="A44" s="33"/>
-      <c r="B44" s="30" t="s">
-        <v>114</v>
-      </c>
-      <c r="C44" s="31" t="s">
+      <c r="A44" s="32"/>
+      <c r="B44" s="29" t="s">
         <v>115</v>
       </c>
-      <c r="D44" s="32" t="s">
-        <v>111</v>
+      <c r="C44" s="30" t="s">
+        <v>116</v>
+      </c>
+      <c r="D44" s="31" t="s">
+        <v>112</v>
       </c>
       <c r="E44" s="21"/>
       <c r="F44" s="20"/>

--- a/第二组评审-图书管理系统项目评审意见处理.xlsx
+++ b/第二组评审-图书管理系统项目评审意见处理.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\北大\周三晚，软件需求工程\作业\software_requirement_work\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8535"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8535"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="126">
   <si>
     <t>图书管理系统项目评审表</t>
   </si>
@@ -382,18 +387,49 @@
   <si>
     <t>缺图</t>
   </si>
+  <si>
+    <t>这是查询的请求方向，结果由“反馈检索结果箭头”给出。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>催还图书分为两个子case：自动催还，手动催还，详见use case图</t>
+  </si>
+  <si>
+    <t>这是部分DFD，没有画管理员的部分</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>只是打印到纸上，并没有输出到其他系统或存储区</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>徐元明</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>两个处理之间可以有线</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>这是部分DFD，没有画催还图书部分</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>加上过程编号</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>只加上一些复难理解的过程描述，一些简单的，比如查询排行榜的需求就
+优先级已经在第8章需求分级中给出了。
+可以区分Actor。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="23">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -422,151 +458,13 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -579,194 +477,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="18">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -883,288 +595,25 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1181,20 +630,71 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1202,82 +702,23 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1567,15 +1008,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="29.125" customWidth="1"/>
     <col min="2" max="2" width="21.875" customWidth="1"/>
@@ -1586,734 +1026,781 @@
     <col min="9" max="9" width="55" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="48" customHeight="1" spans="1:7">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="4"/>
-    </row>
-    <row r="2" ht="30" customHeight="1" spans="1:9">
-      <c r="A2" s="5" t="s">
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="21"/>
+    </row>
+    <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="9" t="s">
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="13"/>
-    </row>
-    <row r="3" ht="30" customHeight="1" spans="1:9">
-      <c r="A3" s="5" t="s">
+      <c r="I2" s="6"/>
+    </row>
+    <row r="3" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="33" t="s">
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="18" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" ht="30" customHeight="1" spans="1:9">
-      <c r="A4" s="14" t="s">
+    <row r="4" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F4" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="18" t="s">
+      <c r="G4" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="13"/>
-      <c r="I4" s="33" t="s">
+      <c r="H4" s="6"/>
+      <c r="I4" s="18" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" ht="30" customHeight="1" spans="1:7">
-      <c r="A5" s="19" t="s">
+    <row r="5" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="21"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-    </row>
-    <row r="6" ht="57" customHeight="1" spans="1:7">
-      <c r="A6" s="22"/>
-      <c r="B6" s="5" t="s">
+      <c r="E5" s="13"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+    </row>
+    <row r="6" spans="1:9" ht="57" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="29"/>
+      <c r="B6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="21"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-    </row>
-    <row r="7" ht="57" customHeight="1" spans="1:7">
-      <c r="A7" s="22"/>
-      <c r="B7" s="5" t="s">
+      <c r="E6" s="13"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+    </row>
+    <row r="7" spans="1:9" ht="57" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="29"/>
+      <c r="B7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="21"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-    </row>
-    <row r="8" ht="90" customHeight="1" spans="1:7">
-      <c r="A8" s="22"/>
-      <c r="B8" s="5" t="s">
+      <c r="E7" s="13"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+    </row>
+    <row r="8" spans="1:9" ht="90" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="29"/>
+      <c r="B8" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="21"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-    </row>
-    <row r="9" ht="80.25" customHeight="1" spans="1:7">
-      <c r="A9" s="22"/>
-      <c r="B9" s="5" t="s">
+      <c r="E8" s="13"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+    </row>
+    <row r="9" spans="1:9" ht="80.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="29"/>
+      <c r="B9" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="21"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-    </row>
-    <row r="10" ht="33.75" customHeight="1" spans="1:7">
-      <c r="A10" s="22"/>
-      <c r="B10" s="5" t="s">
+      <c r="E9" s="13"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+    </row>
+    <row r="10" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="29"/>
+      <c r="B10" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="C10" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="21"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-    </row>
-    <row r="11" ht="45" customHeight="1" spans="1:7">
-      <c r="A11" s="22"/>
-      <c r="B11" s="5" t="s">
+      <c r="E10" s="13"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+    </row>
+    <row r="11" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="29"/>
+      <c r="B11" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="C11" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="21"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-    </row>
-    <row r="12" ht="95.1" customHeight="1" spans="1:7">
-      <c r="A12" s="22"/>
-      <c r="B12" s="5" t="s">
+      <c r="E11" s="13"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+    </row>
+    <row r="12" spans="1:9" ht="95.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="29"/>
+      <c r="B12" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="20" t="s">
+      <c r="C12" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E12" s="23" t="s">
+      <c r="E12" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="F12" s="20" t="s">
+      <c r="F12" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="G12" s="20" t="s">
+      <c r="G12" s="12" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="13" ht="92" customHeight="1" spans="1:7">
-      <c r="A13" s="22"/>
-      <c r="B13" s="5" t="s">
+    <row r="13" spans="1:9" ht="92.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="29"/>
+      <c r="B13" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="20" t="s">
+      <c r="C13" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E13" s="20" t="s">
+      <c r="E13" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="F13" s="20" t="s">
+      <c r="F13" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="G13" s="20" t="s">
+      <c r="G13" s="12" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="14" ht="91" customHeight="1" spans="1:7">
-      <c r="A14" s="22"/>
-      <c r="B14" s="5" t="s">
+    <row r="14" spans="1:9" ht="90.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="29"/>
+      <c r="B14" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="20" t="s">
+      <c r="C14" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E14" s="20" t="s">
+      <c r="E14" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="F14" s="20" t="s">
+      <c r="F14" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="G14" s="20" t="s">
+      <c r="G14" s="12" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="15" ht="113.25" customHeight="1" spans="1:7">
-      <c r="A15" s="22"/>
-      <c r="B15" s="5" t="s">
+    <row r="15" spans="1:9" ht="113.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="29"/>
+      <c r="B15" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C15" s="20" t="s">
+      <c r="C15" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E15" s="20" t="s">
+      <c r="E15" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="F15" s="20" t="s">
+      <c r="F15" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="G15" s="20" t="s">
+      <c r="G15" s="12" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="16" ht="39" customHeight="1" spans="1:7">
-      <c r="A16" s="22"/>
-      <c r="B16" s="5" t="s">
+    <row r="16" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="29"/>
+      <c r="B16" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C16" s="20" t="s">
+      <c r="C16" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E16" s="21"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-    </row>
-    <row r="17" ht="176" customHeight="1" spans="1:7">
-      <c r="A17" s="22"/>
-      <c r="B17" s="5" t="s">
+      <c r="E16" s="13"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+    </row>
+    <row r="17" spans="1:7" ht="176.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="29"/>
+      <c r="B17" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C17" s="20" t="s">
+      <c r="C17" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E17" s="20" t="s">
+      <c r="E17" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="F17" s="20" t="s">
+      <c r="F17" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="G17" s="20" t="s">
+      <c r="G17" s="12" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="18" ht="37.5" customHeight="1" spans="1:7">
-      <c r="A18" s="22"/>
-      <c r="B18" s="5" t="s">
+    <row r="18" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="29"/>
+      <c r="B18" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C18" s="20" t="s">
+      <c r="C18" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E18" s="21"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="20"/>
-    </row>
-    <row r="19" ht="37.5" customHeight="1" spans="1:7">
-      <c r="A19" s="22"/>
-      <c r="B19" s="5" t="s">
+      <c r="E18" s="13"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+    </row>
+    <row r="19" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="29"/>
+      <c r="B19" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C19" s="20" t="s">
+      <c r="C19" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="D19" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E19" s="21"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="20"/>
-    </row>
-    <row r="20" ht="56.25" customHeight="1" spans="1:7">
-      <c r="A20" s="22"/>
-      <c r="B20" s="5" t="s">
+      <c r="E19" s="13"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+    </row>
+    <row r="20" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="29"/>
+      <c r="B20" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C20" s="20" t="s">
+      <c r="C20" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E20" s="21"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="20"/>
-    </row>
-    <row r="21" ht="108" customHeight="1" spans="1:7">
-      <c r="A21" s="22"/>
-      <c r="B21" s="5" t="s">
+      <c r="E20" s="13"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+    </row>
+    <row r="21" spans="1:7" ht="108" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="29"/>
+      <c r="B21" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C21" s="20" t="s">
+      <c r="C21" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D21" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E21" s="20" t="s">
+      <c r="E21" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="F21" s="20" t="s">
+      <c r="F21" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="G21" s="20" t="s">
+      <c r="G21" s="12" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="22" ht="65.45" customHeight="1" spans="1:7">
-      <c r="A22" s="22"/>
-      <c r="B22" s="5" t="s">
+    <row r="22" spans="1:7" ht="65.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="29"/>
+      <c r="B22" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C22" s="20" t="s">
+      <c r="C22" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="D22" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E22" s="21"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="20"/>
-    </row>
-    <row r="23" ht="30" customHeight="1" spans="1:7">
-      <c r="A23" s="19" t="s">
+      <c r="E22" s="13"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+    </row>
+    <row r="23" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D23" s="24" t="s">
+      <c r="D23" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="E23" s="21"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="20"/>
-    </row>
-    <row r="24" ht="30" customHeight="1" spans="1:7">
-      <c r="A24" s="22"/>
-      <c r="B24" s="5" t="s">
+      <c r="E23" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="G23" s="12" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="29"/>
+      <c r="B24" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D24" s="25"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="20"/>
-    </row>
-    <row r="25" ht="30" customHeight="1" spans="1:7">
-      <c r="A25" s="26"/>
-      <c r="B25" s="5" t="s">
+      <c r="D24" s="35"/>
+      <c r="E24" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="G24" s="12" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="30"/>
+      <c r="B25" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D25" s="25"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="20"/>
-    </row>
-    <row r="26" ht="30" customHeight="1" spans="1:7">
-      <c r="A26" s="19" t="s">
+      <c r="D25" s="35"/>
+      <c r="E25" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="G25" s="12" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D26" s="25"/>
-      <c r="E26" s="5" t="s">
+      <c r="D26" s="35"/>
+      <c r="E26" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="F26" s="20" t="s">
+      <c r="F26" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="G26" s="20" t="s">
+      <c r="G26" s="12" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="27" ht="30" customHeight="1" spans="1:7">
-      <c r="A27" s="22"/>
-      <c r="B27" s="5" t="s">
+    <row r="27" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="29"/>
+      <c r="B27" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="D27" s="25"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="20"/>
-      <c r="G27" s="20"/>
-    </row>
-    <row r="28" ht="48" customHeight="1" spans="1:7">
-      <c r="A28" s="26"/>
-      <c r="B28" s="5" t="s">
+      <c r="D27" s="35"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+    </row>
+    <row r="28" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="30"/>
+      <c r="B28" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="D28" s="25"/>
-      <c r="E28" s="20" t="s">
+      <c r="D28" s="35"/>
+      <c r="E28" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="F28" s="20" t="s">
+      <c r="F28" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="G28" s="20" t="s">
+      <c r="G28" s="12" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="29" ht="30" customHeight="1" spans="1:7">
-      <c r="A29" s="19" t="s">
+    <row r="29" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D29" s="25"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="20"/>
-      <c r="G29" s="20"/>
-    </row>
-    <row r="30" ht="30" customHeight="1" spans="1:7">
-      <c r="A30" s="22"/>
-      <c r="B30" s="5" t="s">
+      <c r="D29" s="35"/>
+      <c r="E29" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="F29" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="G29" s="12" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="29"/>
+      <c r="B30" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D30" s="25"/>
-      <c r="E30" s="21"/>
-      <c r="F30" s="20"/>
-      <c r="G30" s="20"/>
-    </row>
-    <row r="31" ht="30" customHeight="1" spans="1:7">
-      <c r="A31" s="22"/>
-      <c r="B31" s="5" t="s">
+      <c r="D30" s="35"/>
+      <c r="E30" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+    </row>
+    <row r="31" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="29"/>
+      <c r="B31" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="C31" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="D31" s="25"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="20"/>
-      <c r="G31" s="20"/>
-    </row>
-    <row r="32" ht="30" customHeight="1" spans="1:7">
-      <c r="A32" s="22"/>
-      <c r="B32" s="5" t="s">
+      <c r="D31" s="35"/>
+      <c r="E31" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="F31" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="G31" s="12" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="29"/>
+      <c r="B32" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C32" s="20" t="s">
+      <c r="C32" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="D32" s="25"/>
-      <c r="E32" s="21"/>
-      <c r="F32" s="20"/>
-      <c r="G32" s="20"/>
-    </row>
-    <row r="33" ht="30" customHeight="1" spans="1:7">
-      <c r="A33" s="22"/>
-      <c r="B33" s="5" t="s">
+      <c r="D32" s="35"/>
+      <c r="E32" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="F32" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G32" s="12" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="29"/>
+      <c r="B33" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="C33" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="D33" s="25"/>
-      <c r="E33" s="21"/>
-      <c r="F33" s="20"/>
-      <c r="G33" s="20"/>
-    </row>
-    <row r="34" ht="132" spans="1:7">
-      <c r="A34" s="27" t="s">
+      <c r="D33" s="35"/>
+      <c r="E33" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="F33" s="12"/>
+      <c r="G33" s="12"/>
+    </row>
+    <row r="34" spans="1:7" ht="132" x14ac:dyDescent="0.15">
+      <c r="A34" s="31" t="s">
         <v>89</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B34" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C34" s="20" t="s">
+      <c r="C34" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="D34" s="10" t="s">
+      <c r="D34" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="E34" s="21"/>
-      <c r="F34" s="20"/>
-      <c r="G34" s="20"/>
-    </row>
-    <row r="35" ht="56.25" customHeight="1" spans="1:7">
-      <c r="A35" s="28"/>
-      <c r="B35" s="5" t="s">
+      <c r="E34" s="13"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12"/>
+    </row>
+    <row r="35" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="32"/>
+      <c r="B35" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C35" s="20" t="s">
+      <c r="C35" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="D35" s="10" t="s">
+      <c r="D35" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="E35" s="20" t="s">
+      <c r="E35" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="F35" s="20" t="s">
+      <c r="F35" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="G35" s="20" t="s">
+      <c r="G35" s="12" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="36" ht="69" customHeight="1" spans="1:7">
-      <c r="A36" s="28"/>
-      <c r="B36" s="5" t="s">
+    <row r="36" spans="1:7" ht="69" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="32"/>
+      <c r="B36" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C36" s="20" t="s">
+      <c r="C36" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="D36" s="10" t="s">
+      <c r="D36" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="E36" s="21"/>
-      <c r="F36" s="20"/>
-      <c r="G36" s="20"/>
-    </row>
-    <row r="37" ht="84.75" customHeight="1" spans="1:7">
-      <c r="A37" s="28"/>
-      <c r="B37" s="5" t="s">
+      <c r="E36" s="36" t="s">
+        <v>125</v>
+      </c>
+      <c r="F36" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G36" s="12" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="84.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="32"/>
+      <c r="B37" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C37" s="20" t="s">
+      <c r="C37" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="D37" s="6" t="s">
+      <c r="D37" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="E37" s="21"/>
-      <c r="F37" s="20"/>
-      <c r="G37" s="20"/>
-    </row>
-    <row r="38" ht="71.25" customHeight="1" spans="1:7">
-      <c r="A38" s="28"/>
-      <c r="B38" s="5" t="s">
+      <c r="E37" s="13"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="12"/>
+    </row>
+    <row r="38" spans="1:7" ht="71.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="32"/>
+      <c r="B38" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C38" s="20" t="s">
+      <c r="C38" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="D38" s="10" t="s">
+      <c r="D38" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="E38" s="21"/>
-      <c r="F38" s="20"/>
-      <c r="G38" s="20"/>
-    </row>
-    <row r="39" ht="71.25" customHeight="1" spans="1:7">
-      <c r="A39" s="28"/>
-      <c r="B39" s="5" t="s">
+      <c r="E38" s="13"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="12"/>
+    </row>
+    <row r="39" spans="1:7" ht="71.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="32"/>
+      <c r="B39" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C39" s="20" t="s">
+      <c r="C39" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="D39" s="10" t="s">
+      <c r="D39" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="E39" s="21"/>
-      <c r="F39" s="20"/>
-      <c r="G39" s="20"/>
-    </row>
-    <row r="40" ht="71.25" customHeight="1" spans="1:7">
-      <c r="A40" s="28"/>
-      <c r="B40" s="5" t="s">
+      <c r="E39" s="13"/>
+      <c r="F39" s="12"/>
+      <c r="G39" s="12"/>
+    </row>
+    <row r="40" spans="1:7" ht="71.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="32"/>
+      <c r="B40" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C40" s="20" t="s">
+      <c r="C40" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="D40" s="10" t="s">
+      <c r="D40" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="E40" s="21"/>
-      <c r="F40" s="20"/>
-      <c r="G40" s="20"/>
-    </row>
-    <row r="41" ht="98.25" customHeight="1" spans="1:7">
-      <c r="A41" s="28"/>
-      <c r="B41" s="5" t="s">
+      <c r="E40" s="13"/>
+      <c r="F40" s="12"/>
+      <c r="G40" s="12"/>
+    </row>
+    <row r="41" spans="1:7" ht="98.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="32"/>
+      <c r="B41" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C41" s="20" t="s">
+      <c r="C41" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="D41" s="6" t="s">
+      <c r="D41" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="E41" s="21"/>
-      <c r="F41" s="20"/>
-      <c r="G41" s="20"/>
-    </row>
-    <row r="42" ht="39.75" customHeight="1" spans="1:7">
-      <c r="A42" s="28"/>
-      <c r="B42" s="29" t="s">
+      <c r="E41" s="13"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="12"/>
+    </row>
+    <row r="42" spans="1:7" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="32"/>
+      <c r="B42" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="C42" s="30" t="s">
+      <c r="C42" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="D42" s="31" t="s">
+      <c r="D42" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="E42" s="21"/>
-      <c r="F42" s="20"/>
-      <c r="G42" s="20"/>
-    </row>
-    <row r="43" ht="30" customHeight="1" spans="1:7">
-      <c r="A43" s="28"/>
-      <c r="B43" s="29" t="s">
+      <c r="E42" s="13"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="12"/>
+    </row>
+    <row r="43" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="32"/>
+      <c r="B43" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="C43" s="30" t="s">
+      <c r="C43" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="D43" s="31" t="s">
+      <c r="D43" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="E43" s="21"/>
-      <c r="F43" s="20"/>
-      <c r="G43" s="20"/>
-    </row>
-    <row r="44" ht="33.75" customHeight="1" spans="1:7">
-      <c r="A44" s="32"/>
-      <c r="B44" s="29" t="s">
+      <c r="E43" s="13"/>
+      <c r="F43" s="12"/>
+      <c r="G43" s="12"/>
+    </row>
+    <row r="44" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="33"/>
+      <c r="B44" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="C44" s="30" t="s">
+      <c r="C44" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="D44" s="31" t="s">
+      <c r="D44" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="E44" s="21"/>
-      <c r="F44" s="20"/>
-      <c r="G44" s="20"/>
+      <c r="E44" s="13"/>
+      <c r="F44" s="12"/>
+      <c r="G44" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="A29:A33"/>
+    <mergeCell ref="A34:A44"/>
+    <mergeCell ref="D23:D33"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="A5:A22"/>
     <mergeCell ref="A23:A25"/>
-    <mergeCell ref="A26:A28"/>
-    <mergeCell ref="A29:A33"/>
-    <mergeCell ref="A34:A44"/>
-    <mergeCell ref="D23:D33"/>
   </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="3">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F44">
@@ -2323,40 +1810,33 @@
       <formula1>"高超,刘洪通,郭豪,康安博,徐元明,王克剑"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/第二组评审-图书管理系统项目评审意见处理.xlsx
+++ b/第二组评审-图书管理系统项目评审意见处理.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="126">
   <si>
     <t>图书管理系统项目评审表</t>
   </si>
@@ -651,6 +651,33 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -677,33 +704,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1011,8 +1011,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1027,28 +1027,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="21"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="30"/>
     </row>
     <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="24"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="33"/>
       <c r="H2" s="4" t="s">
         <v>3</v>
       </c>
@@ -1058,14 +1058,14 @@
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="27"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="36"/>
       <c r="H3" s="6"/>
       <c r="I3" s="18" t="s">
         <v>6</v>
@@ -1099,7 +1099,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="20" t="s">
         <v>15</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -1116,7 +1116,7 @@
       <c r="G5" s="12"/>
     </row>
     <row r="6" spans="1:9" ht="57" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="29"/>
+      <c r="A6" s="21"/>
       <c r="B6" s="2" t="s">
         <v>19</v>
       </c>
@@ -1131,7 +1131,7 @@
       <c r="G6" s="12"/>
     </row>
     <row r="7" spans="1:9" ht="57" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="29"/>
+      <c r="A7" s="21"/>
       <c r="B7" s="2" t="s">
         <v>21</v>
       </c>
@@ -1146,7 +1146,7 @@
       <c r="G7" s="12"/>
     </row>
     <row r="8" spans="1:9" ht="90" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="29"/>
+      <c r="A8" s="21"/>
       <c r="B8" s="2" t="s">
         <v>24</v>
       </c>
@@ -1161,7 +1161,7 @@
       <c r="G8" s="12"/>
     </row>
     <row r="9" spans="1:9" ht="80.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="29"/>
+      <c r="A9" s="21"/>
       <c r="B9" s="2" t="s">
         <v>26</v>
       </c>
@@ -1176,7 +1176,7 @@
       <c r="G9" s="12"/>
     </row>
     <row r="10" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="29"/>
+      <c r="A10" s="21"/>
       <c r="B10" s="2" t="s">
         <v>28</v>
       </c>
@@ -1191,7 +1191,7 @@
       <c r="G10" s="12"/>
     </row>
     <row r="11" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="29"/>
+      <c r="A11" s="21"/>
       <c r="B11" s="2" t="s">
         <v>30</v>
       </c>
@@ -1206,7 +1206,7 @@
       <c r="G11" s="12"/>
     </row>
     <row r="12" spans="1:9" ht="95.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="29"/>
+      <c r="A12" s="21"/>
       <c r="B12" s="2" t="s">
         <v>32</v>
       </c>
@@ -1227,7 +1227,7 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="92.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="29"/>
+      <c r="A13" s="21"/>
       <c r="B13" s="2" t="s">
         <v>37</v>
       </c>
@@ -1248,7 +1248,7 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="90.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="29"/>
+      <c r="A14" s="21"/>
       <c r="B14" s="2" t="s">
         <v>40</v>
       </c>
@@ -1269,7 +1269,7 @@
       </c>
     </row>
     <row r="15" spans="1:9" ht="113.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="29"/>
+      <c r="A15" s="21"/>
       <c r="B15" s="2" t="s">
         <v>44</v>
       </c>
@@ -1290,7 +1290,7 @@
       </c>
     </row>
     <row r="16" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="29"/>
+      <c r="A16" s="21"/>
       <c r="B16" s="2" t="s">
         <v>47</v>
       </c>
@@ -1305,7 +1305,7 @@
       <c r="G16" s="12"/>
     </row>
     <row r="17" spans="1:7" ht="176.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="29"/>
+      <c r="A17" s="21"/>
       <c r="B17" s="2" t="s">
         <v>49</v>
       </c>
@@ -1326,7 +1326,7 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="29"/>
+      <c r="A18" s="21"/>
       <c r="B18" s="2" t="s">
         <v>52</v>
       </c>
@@ -1341,7 +1341,7 @@
       <c r="G18" s="12"/>
     </row>
     <row r="19" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="29"/>
+      <c r="A19" s="21"/>
       <c r="B19" s="2" t="s">
         <v>54</v>
       </c>
@@ -1356,7 +1356,7 @@
       <c r="G19" s="12"/>
     </row>
     <row r="20" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="29"/>
+      <c r="A20" s="21"/>
       <c r="B20" s="2" t="s">
         <v>56</v>
       </c>
@@ -1371,7 +1371,7 @@
       <c r="G20" s="12"/>
     </row>
     <row r="21" spans="1:7" ht="108" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="29"/>
+      <c r="A21" s="21"/>
       <c r="B21" s="2" t="s">
         <v>58</v>
       </c>
@@ -1392,7 +1392,7 @@
       </c>
     </row>
     <row r="22" spans="1:7" ht="65.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="29"/>
+      <c r="A22" s="21"/>
       <c r="B22" s="2" t="s">
         <v>62</v>
       </c>
@@ -1407,7 +1407,7 @@
       <c r="G22" s="12"/>
     </row>
     <row r="23" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="28" t="s">
+      <c r="A23" s="20" t="s">
         <v>64</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -1416,7 +1416,7 @@
       <c r="C23" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D23" s="34" t="s">
+      <c r="D23" s="26" t="s">
         <v>67</v>
       </c>
       <c r="E23" s="13" t="s">
@@ -1430,14 +1430,14 @@
       </c>
     </row>
     <row r="24" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="29"/>
+      <c r="A24" s="21"/>
       <c r="B24" s="2" t="s">
         <v>68</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D24" s="35"/>
+      <c r="D24" s="27"/>
       <c r="E24" s="13" t="s">
         <v>117</v>
       </c>
@@ -1449,14 +1449,14 @@
       </c>
     </row>
     <row r="25" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="30"/>
+      <c r="A25" s="22"/>
       <c r="B25" s="2" t="s">
         <v>70</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D25" s="35"/>
+      <c r="D25" s="27"/>
       <c r="E25" s="13" t="s">
         <v>118</v>
       </c>
@@ -1468,7 +1468,7 @@
       </c>
     </row>
     <row r="26" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="28" t="s">
+      <c r="A26" s="20" t="s">
         <v>72</v>
       </c>
       <c r="B26" s="2" t="s">
@@ -1477,7 +1477,7 @@
       <c r="C26" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D26" s="35"/>
+      <c r="D26" s="27"/>
       <c r="E26" s="2" t="s">
         <v>75</v>
       </c>
@@ -1489,27 +1489,27 @@
       </c>
     </row>
     <row r="27" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="29"/>
+      <c r="A27" s="21"/>
       <c r="B27" s="2" t="s">
         <v>76</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="D27" s="35"/>
+      <c r="D27" s="27"/>
       <c r="E27" s="13"/>
       <c r="F27" s="12"/>
       <c r="G27" s="12"/>
     </row>
     <row r="28" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="30"/>
+      <c r="A28" s="22"/>
       <c r="B28" s="2" t="s">
         <v>78</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="D28" s="35"/>
+      <c r="D28" s="27"/>
       <c r="E28" s="12" t="s">
         <v>80</v>
       </c>
@@ -1521,7 +1521,7 @@
       </c>
     </row>
     <row r="29" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="28" t="s">
+      <c r="A29" s="20" t="s">
         <v>81</v>
       </c>
       <c r="B29" s="2" t="s">
@@ -1530,60 +1530,64 @@
       <c r="C29" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D29" s="35"/>
+      <c r="D29" s="27"/>
       <c r="E29" s="13" t="s">
         <v>119</v>
       </c>
       <c r="F29" s="12" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G29" s="12" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="29"/>
+      <c r="A30" s="21"/>
       <c r="B30" s="2" t="s">
         <v>82</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D30" s="35"/>
+      <c r="D30" s="27"/>
       <c r="E30" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="F30" s="12"/>
-      <c r="G30" s="12"/>
+      <c r="F30" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G30" s="12" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="31" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="29"/>
+      <c r="A31" s="21"/>
       <c r="B31" s="2" t="s">
         <v>82</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="D31" s="35"/>
+      <c r="D31" s="27"/>
       <c r="E31" s="13" t="s">
         <v>122</v>
       </c>
       <c r="F31" s="12" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G31" s="12" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="29"/>
+      <c r="A32" s="21"/>
       <c r="B32" s="2" t="s">
         <v>82</v>
       </c>
       <c r="C32" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="D32" s="35"/>
+      <c r="D32" s="27"/>
       <c r="E32" s="13" t="s">
         <v>124</v>
       </c>
@@ -1595,14 +1599,14 @@
       </c>
     </row>
     <row r="33" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="29"/>
+      <c r="A33" s="21"/>
       <c r="B33" s="2" t="s">
         <v>87</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="D33" s="35"/>
+      <c r="D33" s="27"/>
       <c r="E33" s="13" t="s">
         <v>120</v>
       </c>
@@ -1610,7 +1614,7 @@
       <c r="G33" s="12"/>
     </row>
     <row r="34" spans="1:7" ht="132" x14ac:dyDescent="0.15">
-      <c r="A34" s="31" t="s">
+      <c r="A34" s="23" t="s">
         <v>89</v>
       </c>
       <c r="B34" s="2" t="s">
@@ -1627,7 +1631,7 @@
       <c r="G34" s="12"/>
     </row>
     <row r="35" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="32"/>
+      <c r="A35" s="24"/>
       <c r="B35" s="2" t="s">
         <v>93</v>
       </c>
@@ -1648,7 +1652,7 @@
       </c>
     </row>
     <row r="36" spans="1:7" ht="69" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="32"/>
+      <c r="A36" s="24"/>
       <c r="B36" s="2" t="s">
         <v>97</v>
       </c>
@@ -1658,7 +1662,7 @@
       <c r="D36" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="E36" s="36" t="s">
+      <c r="E36" s="19" t="s">
         <v>125</v>
       </c>
       <c r="F36" s="12" t="s">
@@ -1669,7 +1673,7 @@
       </c>
     </row>
     <row r="37" spans="1:7" ht="84.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="32"/>
+      <c r="A37" s="24"/>
       <c r="B37" s="2" t="s">
         <v>100</v>
       </c>
@@ -1684,7 +1688,7 @@
       <c r="G37" s="12"/>
     </row>
     <row r="38" spans="1:7" ht="71.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="32"/>
+      <c r="A38" s="24"/>
       <c r="B38" s="2" t="s">
         <v>102</v>
       </c>
@@ -1699,7 +1703,7 @@
       <c r="G38" s="12"/>
     </row>
     <row r="39" spans="1:7" ht="71.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="32"/>
+      <c r="A39" s="24"/>
       <c r="B39" s="2" t="s">
         <v>104</v>
       </c>
@@ -1714,7 +1718,7 @@
       <c r="G39" s="12"/>
     </row>
     <row r="40" spans="1:7" ht="71.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="32"/>
+      <c r="A40" s="24"/>
       <c r="B40" s="2" t="s">
         <v>106</v>
       </c>
@@ -1729,7 +1733,7 @@
       <c r="G40" s="12"/>
     </row>
     <row r="41" spans="1:7" ht="98.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="32"/>
+      <c r="A41" s="24"/>
       <c r="B41" s="2" t="s">
         <v>108</v>
       </c>
@@ -1744,7 +1748,7 @@
       <c r="G41" s="12"/>
     </row>
     <row r="42" spans="1:7" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="32"/>
+      <c r="A42" s="24"/>
       <c r="B42" s="15" t="s">
         <v>110</v>
       </c>
@@ -1759,7 +1763,7 @@
       <c r="G42" s="12"/>
     </row>
     <row r="43" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="32"/>
+      <c r="A43" s="24"/>
       <c r="B43" s="15" t="s">
         <v>113</v>
       </c>
@@ -1774,7 +1778,7 @@
       <c r="G43" s="12"/>
     </row>
     <row r="44" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="33"/>
+      <c r="A44" s="25"/>
       <c r="B44" s="15" t="s">
         <v>115</v>
       </c>

--- a/第二组评审-图书管理系统项目评审意见处理.xlsx
+++ b/第二组评审-图书管理系统项目评审意见处理.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\北大\周三晚，软件需求工程\作业\software_requirement_work\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8535"/>
   </bookViews>
@@ -21,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="131">
   <si>
     <t>图书管理系统项目评审表</t>
   </si>
@@ -423,6 +418,21 @@
 优先级已经在第8章需求分级中给出了。
 可以区分Actor。</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>列表的形式列举所有主要特性</t>
+  </si>
+  <si>
+    <t>刘洪通</t>
+  </si>
+  <si>
+    <t>暂时无法给出具体同时访问用户数。</t>
+  </si>
+  <si>
+    <t>有待确认</t>
+  </si>
+  <si>
+    <t>多字符集的支持正是为了达到一定的兼容性，尽可能避免乱码。</t>
   </si>
 </sst>
 </file>
@@ -599,7 +609,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -704,6 +714,24 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -714,9 +742,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1011,8 +1036,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40:G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1336,9 +1361,15 @@
       <c r="D18" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E18" s="13"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
+      <c r="E18" s="38" t="s">
+        <v>126</v>
+      </c>
+      <c r="F18" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="G18" s="37" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="19" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="21"/>
@@ -1351,9 +1382,15 @@
       <c r="D19" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E19" s="13"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
+      <c r="E19" s="40" t="s">
+        <v>128</v>
+      </c>
+      <c r="F19" s="39" t="s">
+        <v>129</v>
+      </c>
+      <c r="G19" s="39" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="20" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="21"/>
@@ -1728,9 +1765,15 @@
       <c r="D40" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="E40" s="13"/>
-      <c r="F40" s="12"/>
-      <c r="G40" s="12"/>
+      <c r="E40" s="42" t="s">
+        <v>130</v>
+      </c>
+      <c r="F40" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="G40" s="41" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="41" spans="1:7" ht="98.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="24"/>

--- a/第二组评审-图书管理系统项目评审意见处理.xlsx
+++ b/第二组评审-图书管理系统项目评审意见处理.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="137">
   <si>
     <t>图书管理系统项目评审表</t>
   </si>
@@ -433,6 +433,25 @@
   </si>
   <si>
     <t>多字符集的支持正是为了达到一定的兼容性，尽可能避免乱码。</t>
+  </si>
+  <si>
+    <t>康安博</t>
+  </si>
+  <si>
+    <t>这是我们的工作上的疏忽，下次会尽量避免</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>这是我们之前多为考虑到的，已进行补充完善</t>
+  </si>
+  <si>
+    <t>需增加的已进行增加，重新划分目录</t>
+  </si>
+  <si>
+    <t>这个是我们之前处理不到位，解释不清楚，以进行补充，解释</t>
+  </si>
+  <si>
+    <t>3.2与7内容看似相似，但是7里提到了3.2中所没有涉及的部分，如：系统易安装维护等特点是3.2里所没有涉及的，所以是否删有待商定</t>
   </si>
 </sst>
 </file>
@@ -609,7 +628,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -664,6 +683,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -715,23 +752,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1036,8 +1070,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40:G40"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E42" sqref="E42:G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1052,28 +1086,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="30"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="36"/>
     </row>
     <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="33"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="39"/>
       <c r="H2" s="4" t="s">
         <v>3</v>
       </c>
@@ -1083,14 +1117,14 @@
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="36"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="42"/>
       <c r="H3" s="6"/>
       <c r="I3" s="18" t="s">
         <v>6</v>
@@ -1124,7 +1158,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="26" t="s">
         <v>15</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -1136,12 +1170,18 @@
       <c r="D5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="13"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
+      <c r="E5" s="43" t="s">
+        <v>132</v>
+      </c>
+      <c r="F5" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" s="24" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="6" spans="1:9" ht="57" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="21"/>
+      <c r="A6" s="27"/>
       <c r="B6" s="2" t="s">
         <v>19</v>
       </c>
@@ -1156,7 +1196,7 @@
       <c r="G6" s="12"/>
     </row>
     <row r="7" spans="1:9" ht="57" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="21"/>
+      <c r="A7" s="27"/>
       <c r="B7" s="2" t="s">
         <v>21</v>
       </c>
@@ -1171,7 +1211,7 @@
       <c r="G7" s="12"/>
     </row>
     <row r="8" spans="1:9" ht="90" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="21"/>
+      <c r="A8" s="27"/>
       <c r="B8" s="2" t="s">
         <v>24</v>
       </c>
@@ -1186,7 +1226,7 @@
       <c r="G8" s="12"/>
     </row>
     <row r="9" spans="1:9" ht="80.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="21"/>
+      <c r="A9" s="27"/>
       <c r="B9" s="2" t="s">
         <v>26</v>
       </c>
@@ -1201,7 +1241,7 @@
       <c r="G9" s="12"/>
     </row>
     <row r="10" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="21"/>
+      <c r="A10" s="27"/>
       <c r="B10" s="2" t="s">
         <v>28</v>
       </c>
@@ -1216,7 +1256,7 @@
       <c r="G10" s="12"/>
     </row>
     <row r="11" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="21"/>
+      <c r="A11" s="27"/>
       <c r="B11" s="2" t="s">
         <v>30</v>
       </c>
@@ -1231,7 +1271,7 @@
       <c r="G11" s="12"/>
     </row>
     <row r="12" spans="1:9" ht="95.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="21"/>
+      <c r="A12" s="27"/>
       <c r="B12" s="2" t="s">
         <v>32</v>
       </c>
@@ -1252,7 +1292,7 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="92.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="21"/>
+      <c r="A13" s="27"/>
       <c r="B13" s="2" t="s">
         <v>37</v>
       </c>
@@ -1273,7 +1313,7 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="90.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="21"/>
+      <c r="A14" s="27"/>
       <c r="B14" s="2" t="s">
         <v>40</v>
       </c>
@@ -1294,7 +1334,7 @@
       </c>
     </row>
     <row r="15" spans="1:9" ht="113.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="21"/>
+      <c r="A15" s="27"/>
       <c r="B15" s="2" t="s">
         <v>44</v>
       </c>
@@ -1315,7 +1355,7 @@
       </c>
     </row>
     <row r="16" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="21"/>
+      <c r="A16" s="27"/>
       <c r="B16" s="2" t="s">
         <v>47</v>
       </c>
@@ -1325,12 +1365,18 @@
       <c r="D16" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E16" s="13"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
+      <c r="E16" s="43" t="s">
+        <v>133</v>
+      </c>
+      <c r="F16" s="44" t="s">
+        <v>35</v>
+      </c>
+      <c r="G16" s="44" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="17" spans="1:7" ht="176.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="21"/>
+      <c r="A17" s="27"/>
       <c r="B17" s="2" t="s">
         <v>49</v>
       </c>
@@ -1351,7 +1397,7 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="21"/>
+      <c r="A18" s="27"/>
       <c r="B18" s="2" t="s">
         <v>52</v>
       </c>
@@ -1361,18 +1407,18 @@
       <c r="D18" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E18" s="38" t="s">
+      <c r="E18" s="21" t="s">
         <v>126</v>
       </c>
-      <c r="F18" s="37" t="s">
+      <c r="F18" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="G18" s="37" t="s">
+      <c r="G18" s="20" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="21"/>
+      <c r="A19" s="27"/>
       <c r="B19" s="2" t="s">
         <v>54</v>
       </c>
@@ -1382,18 +1428,18 @@
       <c r="D19" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E19" s="40" t="s">
+      <c r="E19" s="23" t="s">
         <v>128</v>
       </c>
-      <c r="F19" s="39" t="s">
+      <c r="F19" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="G19" s="39" t="s">
+      <c r="G19" s="22" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="21"/>
+      <c r="A20" s="27"/>
       <c r="B20" s="2" t="s">
         <v>56</v>
       </c>
@@ -1408,7 +1454,7 @@
       <c r="G20" s="12"/>
     </row>
     <row r="21" spans="1:7" ht="108" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="21"/>
+      <c r="A21" s="27"/>
       <c r="B21" s="2" t="s">
         <v>58</v>
       </c>
@@ -1429,7 +1475,7 @@
       </c>
     </row>
     <row r="22" spans="1:7" ht="65.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="21"/>
+      <c r="A22" s="27"/>
       <c r="B22" s="2" t="s">
         <v>62</v>
       </c>
@@ -1444,7 +1490,7 @@
       <c r="G22" s="12"/>
     </row>
     <row r="23" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="20" t="s">
+      <c r="A23" s="26" t="s">
         <v>64</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -1453,7 +1499,7 @@
       <c r="C23" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D23" s="26" t="s">
+      <c r="D23" s="32" t="s">
         <v>67</v>
       </c>
       <c r="E23" s="13" t="s">
@@ -1467,14 +1513,14 @@
       </c>
     </row>
     <row r="24" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="21"/>
+      <c r="A24" s="27"/>
       <c r="B24" s="2" t="s">
         <v>68</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D24" s="27"/>
+      <c r="D24" s="33"/>
       <c r="E24" s="13" t="s">
         <v>117</v>
       </c>
@@ -1486,14 +1532,14 @@
       </c>
     </row>
     <row r="25" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="22"/>
+      <c r="A25" s="28"/>
       <c r="B25" s="2" t="s">
         <v>70</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D25" s="27"/>
+      <c r="D25" s="33"/>
       <c r="E25" s="13" t="s">
         <v>118</v>
       </c>
@@ -1505,7 +1551,7 @@
       </c>
     </row>
     <row r="26" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="20" t="s">
+      <c r="A26" s="26" t="s">
         <v>72</v>
       </c>
       <c r="B26" s="2" t="s">
@@ -1514,7 +1560,7 @@
       <c r="C26" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D26" s="27"/>
+      <c r="D26" s="33"/>
       <c r="E26" s="2" t="s">
         <v>75</v>
       </c>
@@ -1526,27 +1572,27 @@
       </c>
     </row>
     <row r="27" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="21"/>
+      <c r="A27" s="27"/>
       <c r="B27" s="2" t="s">
         <v>76</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="D27" s="27"/>
+      <c r="D27" s="33"/>
       <c r="E27" s="13"/>
       <c r="F27" s="12"/>
       <c r="G27" s="12"/>
     </row>
     <row r="28" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="22"/>
+      <c r="A28" s="28"/>
       <c r="B28" s="2" t="s">
         <v>78</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="D28" s="27"/>
+      <c r="D28" s="33"/>
       <c r="E28" s="12" t="s">
         <v>80</v>
       </c>
@@ -1558,7 +1604,7 @@
       </c>
     </row>
     <row r="29" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="20" t="s">
+      <c r="A29" s="26" t="s">
         <v>81</v>
       </c>
       <c r="B29" s="2" t="s">
@@ -1567,7 +1613,7 @@
       <c r="C29" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D29" s="27"/>
+      <c r="D29" s="33"/>
       <c r="E29" s="13" t="s">
         <v>119</v>
       </c>
@@ -1579,14 +1625,14 @@
       </c>
     </row>
     <row r="30" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="21"/>
+      <c r="A30" s="27"/>
       <c r="B30" s="2" t="s">
         <v>82</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D30" s="27"/>
+      <c r="D30" s="33"/>
       <c r="E30" s="13" t="s">
         <v>123</v>
       </c>
@@ -1598,14 +1644,14 @@
       </c>
     </row>
     <row r="31" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="21"/>
+      <c r="A31" s="27"/>
       <c r="B31" s="2" t="s">
         <v>82</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="D31" s="27"/>
+      <c r="D31" s="33"/>
       <c r="E31" s="13" t="s">
         <v>122</v>
       </c>
@@ -1617,14 +1663,14 @@
       </c>
     </row>
     <row r="32" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="21"/>
+      <c r="A32" s="27"/>
       <c r="B32" s="2" t="s">
         <v>82</v>
       </c>
       <c r="C32" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="D32" s="27"/>
+      <c r="D32" s="33"/>
       <c r="E32" s="13" t="s">
         <v>124</v>
       </c>
@@ -1636,14 +1682,14 @@
       </c>
     </row>
     <row r="33" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="21"/>
+      <c r="A33" s="27"/>
       <c r="B33" s="2" t="s">
         <v>87</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="D33" s="27"/>
+      <c r="D33" s="33"/>
       <c r="E33" s="13" t="s">
         <v>120</v>
       </c>
@@ -1651,7 +1697,7 @@
       <c r="G33" s="12"/>
     </row>
     <row r="34" spans="1:7" ht="132" x14ac:dyDescent="0.15">
-      <c r="A34" s="23" t="s">
+      <c r="A34" s="29" t="s">
         <v>89</v>
       </c>
       <c r="B34" s="2" t="s">
@@ -1663,12 +1709,18 @@
       <c r="D34" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="E34" s="13"/>
-      <c r="F34" s="12"/>
-      <c r="G34" s="12"/>
+      <c r="E34" s="45" t="s">
+        <v>134</v>
+      </c>
+      <c r="F34" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="G34" s="24" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="35" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="24"/>
+      <c r="A35" s="30"/>
       <c r="B35" s="2" t="s">
         <v>93</v>
       </c>
@@ -1689,7 +1741,7 @@
       </c>
     </row>
     <row r="36" spans="1:7" ht="69" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="24"/>
+      <c r="A36" s="30"/>
       <c r="B36" s="2" t="s">
         <v>97</v>
       </c>
@@ -1710,7 +1762,7 @@
       </c>
     </row>
     <row r="37" spans="1:7" ht="84.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="24"/>
+      <c r="A37" s="30"/>
       <c r="B37" s="2" t="s">
         <v>100</v>
       </c>
@@ -1725,7 +1777,7 @@
       <c r="G37" s="12"/>
     </row>
     <row r="38" spans="1:7" ht="71.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="24"/>
+      <c r="A38" s="30"/>
       <c r="B38" s="2" t="s">
         <v>102</v>
       </c>
@@ -1740,7 +1792,7 @@
       <c r="G38" s="12"/>
     </row>
     <row r="39" spans="1:7" ht="71.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="24"/>
+      <c r="A39" s="30"/>
       <c r="B39" s="2" t="s">
         <v>104</v>
       </c>
@@ -1755,7 +1807,7 @@
       <c r="G39" s="12"/>
     </row>
     <row r="40" spans="1:7" ht="71.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="24"/>
+      <c r="A40" s="30"/>
       <c r="B40" s="2" t="s">
         <v>106</v>
       </c>
@@ -1765,18 +1817,18 @@
       <c r="D40" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="E40" s="42" t="s">
+      <c r="E40" s="25" t="s">
         <v>130</v>
       </c>
-      <c r="F40" s="41" t="s">
+      <c r="F40" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="G40" s="41" t="s">
+      <c r="G40" s="24" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="98.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="24"/>
+      <c r="A41" s="30"/>
       <c r="B41" s="2" t="s">
         <v>108</v>
       </c>
@@ -1786,12 +1838,18 @@
       <c r="D41" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="E41" s="13"/>
-      <c r="F41" s="12"/>
-      <c r="G41" s="12"/>
+      <c r="E41" s="46" t="s">
+        <v>135</v>
+      </c>
+      <c r="F41" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="G41" s="24" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="42" spans="1:7" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="24"/>
+      <c r="A42" s="30"/>
       <c r="B42" s="15" t="s">
         <v>110</v>
       </c>
@@ -1801,12 +1859,18 @@
       <c r="D42" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="E42" s="13"/>
-      <c r="F42" s="12"/>
-      <c r="G42" s="12"/>
+      <c r="E42" s="47" t="s">
+        <v>136</v>
+      </c>
+      <c r="F42" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="G42" s="24" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="43" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="24"/>
+      <c r="A43" s="30"/>
       <c r="B43" s="15" t="s">
         <v>113</v>
       </c>
@@ -1821,7 +1885,7 @@
       <c r="G43" s="12"/>
     </row>
     <row r="44" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="25"/>
+      <c r="A44" s="31"/>
       <c r="B44" s="15" t="s">
         <v>115</v>
       </c>
